--- a/assets/addresses.xlsx
+++ b/assets/addresses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\TrustLook\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE755E1-6C1C-4665-B5CB-07ADDCAF67EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108197E3-8F2D-412E-B82A-5FF261B99B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,47 +292,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -653,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:A137"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,10 +1021,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A40:A57 A1:A29">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:A102">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/addresses.xlsx
+++ b/assets/addresses.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\TrustLook\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108197E3-8F2D-412E-B82A-5FF261B99B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662386CF-508B-43B0-88ED-F7E271E68730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
+  <si>
+    <t>rUAAxf4vDT2Y8TBuq1YYEy73bS6o8kVLxx</t>
+  </si>
+  <si>
+    <t>r9aBr4RTjqkZtKMFrs3VgpW8qKGT5UgqUS</t>
+  </si>
+  <si>
+    <t>r34kcg8rhCPF8jjALqF3fNqVHEjUh1cUdX</t>
+  </si>
+  <si>
+    <t>rftd1iFWXZ8kM7eTyFCDRrwwATarDBGjv9</t>
+  </si>
+  <si>
+    <t>rGSnar2hY1UswB8JNZMJ2tMh1X8kPgqikY</t>
+  </si>
+  <si>
+    <t>rDB3tDkRzMyN4hjZvEcsZUkA1QnRCpCzzG</t>
+  </si>
+  <si>
+    <t>rJH4huJnf3yMmHxLKwyK32kSbN9NWENC5y</t>
+  </si>
+  <si>
+    <t>rpHZWTeXKpFTAKcLBwi1VQRKn3enPv56JF</t>
+  </si>
+  <si>
+    <t>rJe85RkuFsUKQY5KoQjuA5AsbAmmx7LMZ2</t>
+  </si>
+  <si>
+    <t>rUZ4wHxUBCfm1DmeRE3nFXQW5VYzEchiaP</t>
+  </si>
+  <si>
+    <t>rGeGgwzusuaeCxQfik58nR9t9KA75HhJ3A</t>
+  </si>
+  <si>
+    <t>rUGAe5Utkx28HG9P9P7k2bvVdJ7UbJeGn9</t>
+  </si>
+  <si>
+    <t>r3qk3EnRR671FJJF7BsA6rESvVS3J7BE4E</t>
+  </si>
+  <si>
+    <t>rsDAJQCkGPokNHbkq4w79jmwgrV8vAd3HL</t>
+  </si>
   <si>
     <t>rhzGwh6ASaK3NCwzUxcmAZgb8nsDfnCvB7</t>
   </si>
@@ -47,51 +90,6 @@
     <t>rwQiNCFbGGXkrs7E7RXg44W6ckvGKjk1h1</t>
   </si>
   <si>
-    <t>rGfz8KHtNVTEpYN1jnPCmfGhe4k8zmR4ew</t>
-  </si>
-  <si>
-    <t>rUAAxf4vDT2Y8TBuq1YYEy73bS6o8kVLxx</t>
-  </si>
-  <si>
-    <t>r9aBr4RTjqkZtKMFrs3VgpW8qKGT5UgqUS</t>
-  </si>
-  <si>
-    <t>r34kcg8rhCPF8jjALqF3fNqVHEjUh1cUdX</t>
-  </si>
-  <si>
-    <t>rftd1iFWXZ8kM7eTyFCDRrwwATarDBGjv9</t>
-  </si>
-  <si>
-    <t>rGSnar2hY1UswB8JNZMJ2tMh1X8kPgqikY</t>
-  </si>
-  <si>
-    <t>rDB3tDkRzMyN4hjZvEcsZUkA1QnRCpCzzG</t>
-  </si>
-  <si>
-    <t>rJH4huJnf3yMmHxLKwyK32kSbN9NWENC5y</t>
-  </si>
-  <si>
-    <t>rpHZWTeXKpFTAKcLBwi1VQRKn3enPv56JF</t>
-  </si>
-  <si>
-    <t>rJe85RkuFsUKQY5KoQjuA5AsbAmmx7LMZ2</t>
-  </si>
-  <si>
-    <t>rUZ4wHxUBCfm1DmeRE3nFXQW5VYzEchiaP</t>
-  </si>
-  <si>
-    <t>rGeGgwzusuaeCxQfik58nR9t9KA75HhJ3A</t>
-  </si>
-  <si>
-    <t>rUGAe5Utkx28HG9P9P7k2bvVdJ7UbJeGn9</t>
-  </si>
-  <si>
-    <t>r3qk3EnRR671FJJF7BsA6rESvVS3J7BE4E</t>
-  </si>
-  <si>
-    <t>rsDAJQCkGPokNHbkq4w79jmwgrV8vAd3HL</t>
-  </si>
-  <si>
     <t>rN6H7UHoufKWnqN7sgGGhRsw7Q5XUzyYTo</t>
   </si>
   <si>
@@ -243,13 +241,19 @@
   </si>
   <si>
     <t>rwjuTBxVMisXt7Bzsq8oFHCS6Ni3de2FvN</t>
+  </si>
+  <si>
+    <t>rDJJymANegmKbyT8cw7hK8fGsminVoPuND</t>
+  </si>
+  <si>
+    <t>rUnDpyLp5iPHdVoPQPCyHfZT7wYDE3JW78</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +267,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF050505"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -285,14 +306,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -611,421 +675,796 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A87"/>
+  <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A71"/>
+      <selection sqref="A1:A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
+      <c r="A1" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="A2" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
+      <c r="A4" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
+      <c r="A5" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
+      <c r="A6" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
+      <c r="A7" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
+      <c r="A10" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
+      <c r="A11" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
+      <c r="A12" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
+      <c r="A13" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>19</v>
+      <c r="A15" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>2</v>
+      <c r="A18" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>3</v>
+      <c r="A19" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>4</v>
+      <c r="A20" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>40</v>
+      <c r="A41" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>42</v>
+      <c r="A43" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
+      <c r="A75" s="4"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
+      <c r="A76" s="4"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
+      <c r="A77" s="4"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
+      <c r="A78" s="4"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
+      <c r="A79" s="4"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
+      <c r="A80" s="4"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
+      <c r="A81" s="4"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
+      <c r="A82" s="4"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
+      <c r="A83" s="4"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
+      <c r="A84" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A40:A57 A1:A29">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A105:A115">
+    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A102">
+  <conditionalFormatting sqref="A103:A104">
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85:A102 A73:A74">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548FDC1-9A94-42DD-ACBD-A5874969EE3D}">
+  <dimension ref="A1:A72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection sqref="A1:A72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/addresses.xlsx
+++ b/assets/addresses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\TrustLook\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662386CF-508B-43B0-88ED-F7E271E68730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B94B860-9071-42DD-8DEF-94BA7F4E0516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,16 +17,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -316,17 +306,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -678,7 +658,7 @@
   <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A72"/>
+      <selection activeCell="A3" sqref="A3:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,16 +1055,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A105:A115">
-    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:A104">
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A102 A73:A74">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1463,7 +1443,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
